--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T17:21:43+00:00</t>
+    <t>2023-10-04T17:37:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T17:37:18+00:00</t>
+    <t>2023-10-05T13:58:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T13:58:44+00:00</t>
+    <t>2023-10-05T15:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:17:51+00:00</t>
+    <t>2023-10-06T06:48:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T06:48:32+00:00</t>
+    <t>2023-10-06T19:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-suppr-extension-eclaire-condition-details-and-new-slice/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T19:29:53+00:00</t>
+    <t>2023-10-09T08:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
